--- a/medicine/Psychotrope/Brasserie_des_Sources/Brasserie_des_Sources.xlsx
+++ b/medicine/Psychotrope/Brasserie_des_Sources/Brasserie_des_Sources.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brasserie des Sources (anciennement Brasserie de Saint-Amand) est une brasserie située à Saint-Amand-les-Eaux, dans le département du Nord.
@@ -512,12 +524,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La brasserie est créée en 1996 sous le nom de "Brasserie des Amis Réunis", avec l'aide de l'Union européenne et à l'instigation d'une association des acteurs et réalisateurs du film Germinal (Association des Amis Réunis : Gérard Depardieu, Renaud, Miou-Miou, Claude Berri, Jean-Pierre Coffe, ...). Sa première production est une bière nommée Germinal[1]. Elle devient la Brasserie de Saint-Amand-les-Eaux en 2002.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La brasserie est créée en 1996 sous le nom de "Brasserie des Amis Réunis", avec l'aide de l'Union européenne et à l'instigation d'une association des acteurs et réalisateurs du film Germinal (Association des Amis Réunis : Gérard Depardieu, Renaud, Miou-Miou, Claude Berri, Jean-Pierre Coffe, ...). Sa première production est une bière nommée Germinal. Elle devient la Brasserie de Saint-Amand-les-Eaux en 2002.
 En 2005, après une fermeture pour cause de liquidation judiciaire, la brasserie est reprise par Jean-luc Robert Butez (propriétaire de International Breweries and Beers), et ouvre de nouveau sous le nom de Brasserie des Sources.
 Le matériel de brasserie est installé dans le bâtiment des anciens abattoirs de Saint-Amand-les-Eaux. Ce matériel a été originellement acheté par l'Association des Amis Réunis.
-La bière Bellerose est lancée en 2011[2].
+La bière Bellerose est lancée en 2011.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste non exhaustive de la production :
 3e Mi-Temps 6° Blonde en bouteille de 0.33 l
